--- a/biology/Botanique/Plectranthus_parviflorus/Plectranthus_parviflorus.xlsx
+++ b/biology/Botanique/Plectranthus_parviflorus/Plectranthus_parviflorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plectranthus parviflorus est une espèce de la famille des Lamiacées. En Nouvelle-Calédonie, on l'appelle méamoru ou encore mitché.
 </t>
@@ -513,13 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Aspect général
-Cette plante pousse au ras du sol.
-Feuilles
-Les feuilles sont opposées, velues, assez épaisses et cassantes.
-Fleurs
-Ses fleurs, bleues à violettes, sont très petites, d'où son nom parviflorus[1].
-Fruits</t>
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante pousse au ras du sol.
+</t>
         </is>
       </c>
     </row>
@@ -544,12 +557,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont opposées, velues, assez épaisses et cassantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Plectranthus_parviflorus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plectranthus_parviflorus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses fleurs, bleues à violettes, sont très petites, d'où son nom parviflorus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Plectranthus_parviflorus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plectranthus_parviflorus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Symbolique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Nouvelle-Calédonie, cette plante est symbole de vie ; chaque morceau de sa tige peut former une bouture. Pour annoncer la naissance d'un enfant, une tige est offerte à son oncle maternel, associée à une sagaie si c'est un garçon, à de l'écorce de niaouli si c'est une fille[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Nouvelle-Calédonie, cette plante est symbole de vie ; chaque morceau de sa tige peut former une bouture. Pour annoncer la naissance d'un enfant, une tige est offerte à son oncle maternel, associée à une sagaie si c'est un garçon, à de l'écorce de niaouli si c'est une fille.
 </t>
         </is>
       </c>
